--- a/Input Data/Mapping_generators.xlsx
+++ b/Input Data/Mapping_generators.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$1:$F$55</definedName>
+  </definedNames>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -192,9 +195,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>Oil</t>
-  </si>
-  <si>
     <t>OCGT</t>
   </si>
   <si>
@@ -214,6 +214,45 @@
   </si>
   <si>
     <t>Mapped_to</t>
+  </si>
+  <si>
+    <t>Dispatchable</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Oil_shale</t>
+  </si>
+  <si>
+    <t>Oil_heavy</t>
+  </si>
+  <si>
+    <t>Oil_light</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Intermittent</t>
+  </si>
+  <si>
+    <t>Super_type</t>
+  </si>
+  <si>
+    <t>Storage_flow</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>PS_O</t>
+  </si>
+  <si>
+    <t>PS_C</t>
   </si>
 </sst>
 </file>
@@ -229,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,9 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,13 +326,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>427640</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>85208</xdr:rowOff>
@@ -581,31 +628,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -613,18 +664,21 @@
         <v>3.87</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
         <f>SUMIF(C2:C55,"NI",B2:B55)</f>
-        <v>4590.7057503105571</v>
-      </c>
-      <c r="E2">
-        <f>D2/D3</f>
-        <v>0.25040893432421252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1433.818607635639</v>
+      </c>
+      <c r="F2">
+        <f>E2/E3</f>
+        <v>7.8210412315792135E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -634,12 +688,15 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
         <f>SUM(B2:B55)</f>
         <v>18332.835298786991</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -649,19 +706,25 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5">
         <v>397.78267260372002</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -671,8 +734,11 @@
       <c r="C6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -680,10 +746,13 @@
         <v>158.06954799584</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -691,10 +760,13 @@
         <v>81.478200003479998</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -702,10 +774,13 @@
         <v>2.8128204727199999</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -713,10 +788,13 @@
         <v>0.88379999543999999</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -724,10 +802,13 @@
         <v>55.379296019199998</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -737,8 +818,11 @@
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -746,10 +830,13 @@
         <v>3.96</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -759,19 +846,25 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
         <v>639.22379699723899</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -779,10 +872,13 @@
         <v>1066.0789870829999</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -792,8 +888,11 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -801,10 +900,13 @@
         <v>0.64585999999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -812,10 +914,13 @@
         <v>1.8027519999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -825,8 +930,11 @@
       <c r="C20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -836,8 +944,11 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -845,10 +956,13 @@
         <v>377.313239748</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -858,8 +972,11 @@
       <c r="C23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -867,21 +984,27 @@
         <v>42.263600025359999</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
         <v>41.941599607999997</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -891,8 +1014,11 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -900,10 +1026,13 @@
         <v>0.14851999999999899</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -911,10 +1040,13 @@
         <v>4.71</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -924,8 +1056,11 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -933,10 +1068,13 @@
         <v>333.50440003715897</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -944,10 +1082,13 @@
         <v>332.87928005015999</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -955,10 +1096,13 @@
         <v>979.61719612039894</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -968,8 +1112,11 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -977,10 +1124,13 @@
         <v>84.056539871159998</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -988,10 +1138,13 @@
         <v>1.5780000000000001</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1001,8 +1154,11 @@
       <c r="C36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1012,8 +1168,11 @@
       <c r="C37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1021,10 +1180,13 @@
         <v>516.36127208099902</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1034,30 +1196,39 @@
       <c r="C39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40">
         <v>367.37045048087998</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41">
         <v>601.23678988127995</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1065,10 +1236,13 @@
         <v>1.44</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1078,8 +1252,11 @@
       <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1087,10 +1264,13 @@
         <v>144.22472005259999</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1098,10 +1278,13 @@
         <v>7.2842399979600003</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1109,10 +1292,13 @@
         <v>4294.80953891439</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1120,10 +1306,13 @@
         <v>123.29000013544</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1131,10 +1320,13 @@
         <v>4.68</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1142,21 +1334,27 @@
         <v>3.70800000003999</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
       <c r="B50">
         <v>559.49611992799998</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1166,8 +1364,11 @@
       <c r="C51" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1175,10 +1376,13 @@
         <v>5028.15765547499</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1186,10 +1390,13 @@
         <v>20.712199996439999</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1197,10 +1404,13 @@
         <v>301.06848011239998</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1208,10 +1418,14 @@
         <v>25.30019999692</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F55"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Input Data/Mapping_generators.xlsx
+++ b/Input Data/Mapping_generators.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$A$1:$F$55</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>PS_C</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Other Non RES</t>
   </si>
 </sst>
 </file>
@@ -320,49 +326,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>427640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8839200" y="714375"/>
-          <a:ext cx="7876190" cy="4133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,21 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -671,14 +635,14 @@
       </c>
       <c r="E2">
         <f>SUMIF(C2:C55,"NI",B2:B55)</f>
-        <v>1433.818607635639</v>
+        <v>115.57870767700001</v>
       </c>
       <c r="F2">
         <f>E2/E3</f>
-        <v>7.8210412315792135E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.3044644100766776E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -696,7 +660,7 @@
         <v>18332.835298786991</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -710,7 +674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -718,13 +682,13 @@
         <v>397.78267260372002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -738,7 +702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -752,7 +716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -766,7 +730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -780,7 +744,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -794,7 +758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -808,7 +772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -816,13 +780,13 @@
         <v>346.64596199763901</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -836,21 +800,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>66.890616819999906</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -864,7 +828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -878,21 +842,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17">
         <v>1.379</v>
       </c>
-      <c r="C17" t="s">
-        <v>56</v>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -906,7 +870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -920,35 +884,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>15.48</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
         <v>78.471398436000001</v>
       </c>
-      <c r="C21" t="s">
-        <v>56</v>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -962,21 +926,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23">
         <v>0.92820001240000005</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -990,21 +954,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
         <v>41.941599607999997</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
+      <c r="C25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1032,7 +996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1088,7 +1052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1102,7 +1066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1144,21 +1108,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36">
         <v>1.35</v>
       </c>
-      <c r="C36" t="s">
-        <v>56</v>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1136,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1208,13 +1172,13 @@
         <v>367.37045048087998</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1256,7 +1220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1284,7 +1248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1312,7 +1276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +1346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1410,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1389,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F55"/>
+  <autoFilter ref="A1:F55">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Other_non_res"/>
+        <filter val="Other_res"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>